--- a/src/test/resources/cases_v9.xlsx
+++ b/src/test/resources/cases_v9.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="2">
   <si>
     <t>ApiId(接口编号)</t>
   </si>
@@ -1435,7 +1435,7 @@
         <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>27</v>
@@ -1467,7 +1467,7 @@
         <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>32</v>
@@ -1583,7 +1583,7 @@
         <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>43</v>

--- a/src/test/resources/cases_v9.xlsx
+++ b/src/test/resources/cases_v9.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="2">
   <si>
     <t>ApiId(接口编号)</t>
   </si>
